--- a/pred_ohlcv/54_21/2020-01-20 XLM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 XLM ohlcv.xlsx
@@ -678,7 +678,7 @@
         <v>39224.15920981992</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-61143.01759018008</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-62251.14829018008</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-62504.14839018007</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-115457.0833901801</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-145476.5618901801</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-145476.5618901801</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-145553.8723901801</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-129931.1777901801</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-129782.5749901801</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-130457.5749901801</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-131010.5749901801</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-119861.7695901801</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-130450.8500901801</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-130724.9894901801</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-122042.0158901801</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-122042.0158901801</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-122042.0158901801</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-128458.9585901801</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-114395.8317901801</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-111007.1390901801</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-110991.3248901801</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-110991.3248901801</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-108043.0958901801</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-130543.0958901801</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-309065.3024901801</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-371579.0816901801</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-368928.9718901801</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-368002.7511901801</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-358786.2303901801</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-351940.9663901801</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-346298.2778901801</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-335865.4471901801</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-192211.1771901801</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-189232.8762399701</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-50194.63813997013</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-68951.78493997014</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>71633.45386002985</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>70987.45386002985</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>74454.66336002985</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>63834.35906002985</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>65610.21636002985</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>143285.6168600299</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>143315.4634600299</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>267297.0185600298</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>338405.3904600298</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>368274.9974600298</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>366551.9974600298</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>367189.9974600298</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>371993.9498600298</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>515433.1747800598</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>498627.5747800599</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>498627.5747800599</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>498627.5747800599</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>507247.5359800599</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>507254.5359800599</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>485835.0675800599</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>433642.5791800598</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>420810.2092800598</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>457813.4495800599</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>459168.3100800599</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>462168.3100800599</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>480463.9988800599</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>467829.6717800599</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>460398.9786800599</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>460398.9786800599</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>460398.9786800599</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>460398.9786800599</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>460398.9786800599</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>460398.9786800599</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>460398.9786800599</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>460398.9786800599</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>460398.9786800599</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>460398.9786800599</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>460398.9786800599</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>460398.9786800599</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>460398.9786800599</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>460398.9786800599</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>460398.9786800599</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>461260.9785800599</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>461260.9785800599</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>456485.7994800599</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>456485.7994800599</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>433708.6944800599</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>429974.5219800599</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>442876.4003800599</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>442903.4003800599</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>442903.4003800599</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>131608.4199683199</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>96948.83956831989</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>109932.0395683199</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>158877.0309683199</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>131914.8828683199</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>131914.8828683199</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-36417.7628316801</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-78959.7907316801</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-69371.6269316801</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-54436.07523168011</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>286879.8707960099</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>286879.8707960099</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>299542.1247960099</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>268855.8098960099</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>268855.8098960099</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>256571.2521960099</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>234712.5124960099</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>208277.2493960099</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>208277.2493960099</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>208277.2493960099</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>276870.0027960099</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>274057.0027960099</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>274065.0027960099</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>274065.0027960099</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>394134.2379960099</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>418975.2376960099</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>464558.8977960098</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>475570.4205960098</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>461463.5638270098</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>446210.4271270098</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>445210.4271270098</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>432357.4093270099</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>422400.8336270099</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>422400.8336270099</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>391173.9461270099</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>391490.8984270099</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>368081.5108270099</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>685893.5964270099</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>764717.3043610299</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>812992.6173610298</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>812992.6173610298</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>819242.6163610298</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>820242.6163610298</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>791078.1264610298</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>791078.1264610298</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>791054.1523610298</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>793536.1330610297</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>793536.1330610297</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>793536.1330610297</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>757750.6087610297</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>758618.0587610296</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>764259.0552610296</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>753598.0276610296</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>823807.7544610295</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>823807.7544610295</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>823238.4240610296</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>823268.4240610296</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>833819.1365610296</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>833432.6912610296</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>834836.6627610296</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>834836.6627610296</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>834836.6627610296</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>845616.3222610295</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>845616.3222610295</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>887272.5393610295</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>915246.3765610295</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>915246.3765610295</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>922360.3766610294</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>922351.9191610294</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>923836.9506610294</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>924845.3752610295</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>925148.0198610295</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>925148.0198610295</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>915850.3597610295</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>915850.3597610295</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>914659.4591610294</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>943532.7612610294</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>784130.5129477493</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>781935.9719477494</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>623159.6866046997</v>
       </c>
       <c r="H493">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>570623.9517046997</v>
       </c>
       <c r="H494">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>536549.6975046997</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>565221.4264046997</v>
       </c>
       <c r="H500">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>564999.6051046997</v>
       </c>
       <c r="H501">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>726587.1345046997</v>
       </c>
       <c r="H502">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>1042147.3319047</v>
       </c>
       <c r="H503">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>1435487.4139047</v>
       </c>
       <c r="H504">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>1772412.2453047</v>
       </c>
       <c r="H505">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>2242215.9021047</v>
       </c>
       <c r="H506">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>2171344.296843281</v>
       </c>
       <c r="H525">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>2049798.718943281</v>
       </c>
       <c r="H526">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>2095037.997243281</v>
       </c>
       <c r="H527">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>2061549.532243281</v>
       </c>
       <c r="H528">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>2081008.820243281</v>
       </c>
       <c r="H529">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>2005058.233943281</v>
       </c>
       <c r="H530">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>2004907.207709771</v>
       </c>
       <c r="H531">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>2046629.050309771</v>
       </c>
       <c r="H532">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>2046629.050309771</v>
       </c>
       <c r="H533">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>2031065.023809771</v>
       </c>
       <c r="H534">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>1999160.259209771</v>
       </c>
       <c r="H535">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>1962769.743909771</v>
       </c>
       <c r="H536">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>2019696.140309771</v>
       </c>
       <c r="H537">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>2007905.02070977</v>
       </c>
       <c r="H538">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>2099251.588209771</v>
       </c>
       <c r="H541">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>2199234.19616351</v>
       </c>
       <c r="H542">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>2141219.77096351</v>
       </c>
       <c r="H543">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>2130626.45686351</v>
       </c>
       <c r="H544">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>2112441.76746351</v>
       </c>
       <c r="H545">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>1949708.37716351</v>
       </c>
       <c r="H546">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>2037931.59426351</v>
       </c>
       <c r="H547">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>902728.7860542823</v>
       </c>
       <c r="H692">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>927526.1856542823</v>
       </c>
       <c r="H693">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>821230.1403542823</v>
       </c>
       <c r="H694">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>851116.3758542823</v>
       </c>
       <c r="H695">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>897355.4606542822</v>
       </c>
       <c r="H696">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>931598.6373542822</v>
       </c>
       <c r="H697">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>960863.1379010422</v>
       </c>
       <c r="H698">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>891503.0883010422</v>
       </c>
       <c r="H699">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>932186.6627010423</v>
       </c>
       <c r="H700">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>966396.1906010422</v>
       </c>
       <c r="H701">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>966396.1906010422</v>
       </c>
       <c r="H702">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>931645.3434126319</v>
       </c>
       <c r="H743">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>1062806.943612632</v>
       </c>
       <c r="H744">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>1085261.928711442</v>
       </c>
       <c r="H745">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>935266.4315114418</v>
       </c>
       <c r="H746">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="747" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-20 XLM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 XLM ohlcv.xlsx
@@ -678,7 +678,7 @@
         <v>39224.15920981992</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-61143.01759018008</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-62251.14829018008</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-62504.14839018007</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-115457.0833901801</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-145476.5618901801</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-145476.5618901801</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-145553.8723901801</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-129931.1777901801</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-129782.5749901801</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-130457.5749901801</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-131010.5749901801</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-119861.7695901801</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-130450.8500901801</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-130724.9894901801</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-122042.0158901801</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-122042.0158901801</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-122042.0158901801</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-128458.9585901801</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-114395.8317901801</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-111007.1390901801</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-110991.3248901801</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-110991.3248901801</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-108043.0958901801</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-130543.0958901801</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-309065.3024901801</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-321429.52739018</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-334354.6612901801</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-373235.2328901801</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-371579.0816901801</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-368928.9718901801</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-368002.7511901801</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-358786.2303901801</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-351940.9663901801</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-349866.2570901801</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-350335.8262901801</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-345712.1961901801</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-346298.2778901801</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-375016.4974901801</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-379469.5072901801</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-199858.7801399701</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-199846.1842399701</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-200982.1842399701</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-203261.6371399701</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-203261.6371399701</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-203967.6238399701</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-207425.0914399701</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-215480.5432399701</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-214980.5432399701</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-193543.7806399702</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-192932.7806399702</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-196990.9447399701</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-49083.63813997013</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-49639.63813997013</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-77479.84163997014</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>36033.45386002985</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>74454.66336002985</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>63834.35906002985</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>87222.24986002986</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>277822.7379600299</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>278369.3379600298</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>266850.3986600298</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>267297.0185600298</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>267297.0185600298</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>343397.0185600298</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>338405.3904600298</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>333405.1520600299</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>334177.2470600298</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>333683.2470600298</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>333683.2470600298</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>321842.2942600298</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>322278.7942600298</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>324213.1530600298</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>342610.2577600298</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>368274.9974600298</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>366551.9974600298</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>367189.9974600298</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>371993.9498600298</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>515433.1747800598</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>498627.5747800599</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>498627.5747800599</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>498627.5747800599</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>507247.5359800599</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>507254.5359800599</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>485835.0675800599</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>433642.5791800598</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>420810.2092800598</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>457813.4495800599</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>459168.3100800599</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>462168.3100800599</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>480463.9988800599</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>467829.6717800599</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>460398.9786800599</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>460398.9786800599</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>460398.9786800599</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>460398.9786800599</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>460398.9786800599</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>460398.9786800599</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>460398.9786800599</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>460398.9786800599</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>460398.9786800599</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>460398.9786800599</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>460398.9786800599</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>460398.9786800599</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>460398.9786800599</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>460398.9786800599</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>460398.9786800599</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>461260.9785800599</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>461260.9785800599</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>456485.7994800599</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>456485.7994800599</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>433708.6944800599</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>429974.5219800599</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>442876.4003800599</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>442903.4003800599</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>442903.4003800599</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>333801.1802800599</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>323798.9078800599</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>349215.3649800599</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>353794.5601800599</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>347936.1504800598</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>322366.2041800598</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>325337.0436800598</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>265835.2436800599</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>265835.2436800599</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>267871.4302800599</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>267871.4302800599</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>253740.2209800599</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>254279.4209800599</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>251915.8351800599</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>246952.1873800599</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>232506.0993800599</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>232519.0993800599</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>232189.4401800599</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>232189.4401800599</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>232189.4401800599</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>232189.4401800599</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>232189.4401800599</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>234655.1522688999</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>243057.3232688999</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>264741.1617496799</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>264321.8275627499</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>262851.8332631999</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>262851.8332631999</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>237058.4244631999</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>135896.7713631999</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>135896.7713631999</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>135896.7713631999</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>135896.7713631999</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>135896.7713631999</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>135896.7713631999</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>160400.4312683199</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>143940.7679683199</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>143940.7679683199</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>143940.7679683199</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>143940.7679683199</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>143940.7679683199</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>138467.4554683199</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>129743.8664683199</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>113953.1179683199</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>112528.6208683199</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>109512.7054683199</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>109970.9061683199</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>131914.8828683199</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-81670.4003316801</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-54436.07523168011</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-54436.07523168011</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-53234.71483168011</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-52890.71483168011</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-52890.71483168011</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-52890.71483168011</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-52850.71483168011</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-52866.42913168011</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-44090.91283168011</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-44390.91283168011</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-44382.91283168011</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-54531.0362316801</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-62701.8128316801</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-62701.8128316801</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-61535.8273316801</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-63950.1491316801</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-68737.30403168009</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-65196.88253168009</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-3909.354303990091</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>8423.801596009909</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>8423.801596009909</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>207043.1788960099</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>286879.8707960099</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>286879.8707960099</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>299542.1247960099</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>268855.8098960099</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>268855.8098960099</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>256571.2521960099</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>234712.5124960099</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>234712.5124960099</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>208277.2493960099</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>208277.2493960099</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>208277.2493960099</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>276870.0027960099</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>274057.0027960099</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>274065.0027960099</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>274065.0027960099</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>394134.2379960099</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>394134.2379960099</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>418975.2376960099</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>464558.8977960098</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>475570.4205960098</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>461463.5638270098</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>446210.4271270098</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>445210.4271270098</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>432357.4093270099</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>422400.8336270099</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>422400.8336270099</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>391173.9461270099</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>391490.8984270099</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>368081.5108270099</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>685893.5964270099</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>685893.5964270099</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>649917.2965270099</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>764717.3043610299</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>812992.6173610298</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>812992.6173610298</v>
       </c>
       <c r="H340">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>819242.6163610298</v>
       </c>
       <c r="H341">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>820242.6163610298</v>
       </c>
       <c r="H342">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>791078.1264610298</v>
       </c>
       <c r="H343">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>791078.1264610298</v>
       </c>
       <c r="H344">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>791054.1523610298</v>
       </c>
       <c r="H345">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>793536.1330610297</v>
       </c>
       <c r="H346">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>793536.1330610297</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>793536.1330610297</v>
       </c>
       <c r="H348">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>757750.6087610297</v>
       </c>
       <c r="H349">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>758618.0587610296</v>
       </c>
       <c r="H350">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>764259.0552610296</v>
       </c>
       <c r="H351">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>753598.0276610296</v>
       </c>
       <c r="H352">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>823807.7544610295</v>
       </c>
       <c r="H353">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>823807.7544610295</v>
       </c>
       <c r="H354">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>823238.4240610296</v>
       </c>
       <c r="H355">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>823268.4240610296</v>
       </c>
       <c r="H356">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>833819.1365610296</v>
       </c>
       <c r="H357">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>833432.6912610296</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>834836.6627610296</v>
       </c>
       <c r="H359">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>834836.6627610296</v>
       </c>
       <c r="H360">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>834836.6627610296</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>845616.3222610295</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>845616.3222610295</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>887272.5393610295</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>915246.3765610295</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>915246.3765610295</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>922360.3766610294</v>
       </c>
       <c r="H367">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>922351.9191610294</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>923836.9506610294</v>
       </c>
       <c r="H369">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>924845.3752610295</v>
       </c>
       <c r="H370">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>925148.0198610295</v>
       </c>
       <c r="H371">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>925148.0198610295</v>
       </c>
       <c r="H372">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>915850.3597610295</v>
       </c>
       <c r="H373">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>915850.3597610295</v>
       </c>
       <c r="H374">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>914659.4591610294</v>
       </c>
       <c r="H375">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>943532.7612610294</v>
       </c>
       <c r="H376">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>784130.5129477493</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>781935.9719477494</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>623159.6866046997</v>
       </c>
       <c r="H493">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>570623.9517046997</v>
       </c>
       <c r="H494">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>536549.6975046997</v>
       </c>
       <c r="H495">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>565221.4264046997</v>
       </c>
       <c r="H500">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>564999.6051046997</v>
       </c>
       <c r="H501">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>726587.1345046997</v>
       </c>
       <c r="H502">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>1042147.3319047</v>
       </c>
       <c r="H503">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>1435487.4139047</v>
       </c>
       <c r="H504">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>1772412.2453047</v>
       </c>
       <c r="H505">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>2242215.9021047</v>
       </c>
       <c r="H506">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>2221276.322170401</v>
       </c>
       <c r="H521">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>2325516.8786704</v>
       </c>
       <c r="H522">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>2503633.167943281</v>
       </c>
       <c r="H523">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>2356549.942341001</v>
       </c>
       <c r="H524">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>2171344.296843281</v>
       </c>
       <c r="H525">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>2049798.718943281</v>
       </c>
       <c r="H526">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>2095037.997243281</v>
       </c>
       <c r="H527">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>2061549.532243281</v>
       </c>
       <c r="H528">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>2081008.820243281</v>
       </c>
       <c r="H529">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>2005058.233943281</v>
       </c>
       <c r="H530">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>2004907.207709771</v>
       </c>
       <c r="H531">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>2046629.050309771</v>
       </c>
       <c r="H532">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>2046629.050309771</v>
       </c>
       <c r="H533">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>2031065.023809771</v>
       </c>
       <c r="H534">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>1999160.259209771</v>
       </c>
       <c r="H535">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>1962769.743909771</v>
       </c>
       <c r="H536">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>2019696.140309771</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>2007905.02070977</v>
       </c>
       <c r="H538">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>2071929.218609771</v>
       </c>
       <c r="H540">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>2099251.588209771</v>
       </c>
       <c r="H541">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>2199234.19616351</v>
       </c>
       <c r="H542">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>2141219.77096351</v>
       </c>
       <c r="H543">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>2130626.45686351</v>
       </c>
       <c r="H544">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>2112441.76746351</v>
       </c>
       <c r="H545">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>1949708.37716351</v>
       </c>
       <c r="H546">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>2037931.59426351</v>
       </c>
       <c r="H547">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>2141706.71960769</v>
       </c>
       <c r="H551">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>1046181.259312632</v>
       </c>
       <c r="H735">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="736" spans="1:8">
